--- a/Ćwiczenia 23.11.2022.xlsx
+++ b/Ćwiczenia 23.11.2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikol\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-121-24\Desktop\Teoretyczne-podstawy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90935EF-8AEC-49EC-98F9-30B7F9D3CEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B44B8F9-C453-4FCD-89A8-1468BCCBC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{F1840C39-C5A6-4FF6-AFFD-DD754E8082D0}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F1840C39-C5A6-4FF6-AFFD-DD754E8082D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadanie 1" sheetId="1" r:id="rId1"/>
@@ -424,12 +424,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -453,7 +453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -470,17 +470,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEA99B0-6A32-4E8B-8D73-8E1F4613A896}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
